--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_선사시대 유적.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_선사시대 유적.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,14 +1226,714 @@
           <t>치레걸이</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>20230315</t>
-        </is>
+      <c r="D32" t="n">
+        <v>20230315</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>제주 고산리 유적</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>동물 장신구</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>덧무늬 토기</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>강원도 양구 상무룡리</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>청동기</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>충남 공주 석장리</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>제주 고산리 유적</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>부여 송국리 유적</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>탄화된 좁쌀, 갈돌과 갈판</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>비파형 동검, 원형 집터</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>청원 두루봉 동굴</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>고령 장기리 유적</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>청동기</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>평양 남경 유적</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>흥수아이</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>탄화된 좁쌀</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>황해 봉산 지탑리 유적</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>아슐리안형 주먹도끼</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>탄화된 좁쌀, 갈돌과 갈판: 신석기</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>웅기 굴포리 유적</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>한반도 최초의 인류 화석 발굴</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>북한 최초 발견 구석기 유적</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>웅기 굴포리 서포항 유적</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>흥수아이</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>동물 장신구</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>여주 흔암리 유적</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>탄화된 좁쌀</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>붉은 간 토기</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>봉산 지탑리 유적</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>청동기</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>붉은 간토기</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>청동기</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>덕천 승리산 동굴</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>충북 청주 산성동</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>흑요석</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>가락바퀴</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>제주 고산리 유적</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>제주 고산리 유적</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>탄화된 좁쌀</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>덧무늬 토기</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>고령 장기리 유적</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>청동기</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>강원도 양구 상무룡리</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>황해 봉산 지탑리 유적</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>동물 장신구</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>탄화된 좁쌀, 갈돌과 갈판: 신석기</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>부여 송국리 유적</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>신석기</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>청동기</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>제주 고산리 유적</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>흑요석</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>덧무늬 토기</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>경남 통영 연대도</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>토제 인면(人面)상</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>치레걸이</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>충남 공주 석장리</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>청동기</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>구석기</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>웅기 굴포리 유적</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>남한 최초 인골화석 발견</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>북한 최초 발견 구석기 유적</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>단양 상시리 바위그늘</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>한반도 최초의 인류 화석 발굴</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>남한 최초 인골화석 발견</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230321</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>양양 오산리 유적</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>탄화된 좁쌀, 갈돌과 갈판</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>토제 인면(人面)상</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>20230321</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
         </is>
       </c>
     </row>
